--- a/reglage asserv.xlsx
+++ b/reglage asserv.xlsx
@@ -13,7 +13,9 @@
   </sheets>
   <definedNames>
     <definedName name="Ku">'gain PID'!$B$4</definedName>
+    <definedName name="ku_2">'gain PID'!$K$4</definedName>
     <definedName name="TU">'gain PID'!$B$5</definedName>
+    <definedName name="TU_2">'gain PID'!$K$5</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -54,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
   <si>
     <t>tic</t>
   </si>
@@ -150,6 +152,30 @@
   </si>
   <si>
     <t>Ku (Kp seul)</t>
+  </si>
+  <si>
+    <t>dep</t>
+  </si>
+  <si>
+    <t>CAP</t>
+  </si>
+  <si>
+    <t>DEP</t>
+  </si>
+  <si>
+    <t>set O3</t>
+  </si>
+  <si>
+    <t>set O2</t>
+  </si>
+  <si>
+    <t>periode slave</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -189,7 +215,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,6 +231,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -255,12 +293,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -269,6 +301,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -748,140 +794,403 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="4" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="3" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="B3" s="9"/>
+      <c r="J3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="7">
+        <v>15</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="7">
+        <v>1500</v>
+      </c>
+      <c r="M4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="O4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0.59</v>
+      </c>
+      <c r="N5">
+        <f>N4/1000</f>
+        <v>0.02</v>
+      </c>
+      <c r="O5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="K8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="8">
         <f>Ku/2</f>
+        <v>7.5</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="J9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="8">
+        <f>ku_2/2</f>
+        <v>750</v>
+      </c>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="8">
+        <f>Ku/2.2</f>
+        <v>6.8181818181818175</v>
+      </c>
+      <c r="C10" s="8">
+        <f>B10/TU/1.2</f>
+        <v>5.6818181818181817</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="J10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="8">
+        <f>ku_2/2.2</f>
+        <v>681.81818181818176</v>
+      </c>
+      <c r="L10" s="8">
+        <f>K10/TU_2/1.2</f>
+        <v>963.020030816641</v>
+      </c>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="8">
+        <f>0.6*Ku</f>
+        <v>9</v>
+      </c>
+      <c r="C11" s="8">
+        <f>2*B11/TU</f>
+        <v>18</v>
+      </c>
+      <c r="D11" s="8">
+        <f>B11*TU/8</f>
+        <v>1.125</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="8">
+        <f>0.6*ku_2</f>
+        <v>900</v>
+      </c>
+      <c r="L11" s="8">
+        <f>2*K11/TU_2</f>
+        <v>3050.8474576271187</v>
+      </c>
+      <c r="M11" s="8">
+        <f>K11*TU_2/8</f>
+        <v>66.375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="8">
+        <f>0.33*Ku</f>
+        <v>4.95</v>
+      </c>
+      <c r="C12" s="8">
+        <f>B12*2/TU</f>
+        <v>9.9</v>
+      </c>
+      <c r="D12" s="8">
+        <f>B12*TU/3</f>
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="8">
+        <f>0.33*ku_2</f>
+        <v>495</v>
+      </c>
+      <c r="L12" s="8">
+        <f>K12*2/TU_2</f>
+        <v>1677.9661016949153</v>
+      </c>
+      <c r="M12" s="8">
+        <f>K12*TU_2/3</f>
+        <v>97.350000000000009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="12">
+        <f>0.2*Ku</f>
+        <v>3</v>
+      </c>
+      <c r="C13" s="12">
+        <f>B13*2/TU</f>
+        <v>6</v>
+      </c>
+      <c r="D13" s="12">
+        <f>B13*TU/3</f>
+        <v>1</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="12">
+        <f>0.2*ku_2</f>
+        <v>300</v>
+      </c>
+      <c r="L13" s="12">
+        <f>K13*2/TU_2</f>
+        <v>1016.949152542373</v>
+      </c>
+      <c r="M13" s="12">
+        <f>K13*TU_2/3</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="14">
+        <f>B13</f>
+        <v>3</v>
+      </c>
+      <c r="C14" s="14">
+        <f>C13*$N$5</f>
+        <v>0.12</v>
+      </c>
+      <c r="D14" s="14">
+        <f>D13/$N$5</f>
+        <v>50</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="14">
+        <f>K13</f>
+        <v>300</v>
+      </c>
+      <c r="L14" s="14">
+        <f>L13*$N$5</f>
+        <v>20.33898305084746</v>
+      </c>
+      <c r="M14" s="14">
+        <f>M13/$N$5</f>
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="14">
+        <f>B12</f>
+        <v>4.95</v>
+      </c>
+      <c r="C15" s="14">
+        <f>C12*$N$5</f>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="D15" s="14">
+        <f>D12/$N$5</f>
+        <v>82.5</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="14">
+        <f>K12</f>
+        <v>495</v>
+      </c>
+      <c r="L15" s="14">
+        <f>L12*$N$5</f>
+        <v>33.559322033898304</v>
+      </c>
+      <c r="M15" s="14">
+        <f>M12/$N$5</f>
+        <v>4867.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="14">
+        <f>B11</f>
+        <v>9</v>
+      </c>
+      <c r="C16" s="14">
+        <f>C11*$N$5</f>
+        <v>0.36</v>
+      </c>
+      <c r="D16" s="14">
+        <f>D11/$N$5</f>
+        <v>56.25</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="14">
+        <f>K11</f>
+        <v>900</v>
+      </c>
+      <c r="L16" s="14">
+        <f>L11*$N$5</f>
+        <v>61.016949152542374</v>
+      </c>
+      <c r="M16" s="14">
+        <f>M11/$N$5</f>
+        <v>3318.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>300</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
         <v>10</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="10">
-        <f>Ku/2.2</f>
-        <v>9.0909090909090899</v>
-      </c>
-      <c r="C10" s="10">
-        <f>B10/TU/1.2</f>
-        <v>15.15151515151515</v>
-      </c>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="10">
-        <f>0.6*Ku</f>
-        <v>12</v>
-      </c>
-      <c r="C11" s="10">
-        <f>2*B11/TU</f>
-        <v>48</v>
-      </c>
-      <c r="D11" s="10">
-        <f>B11*TU/8</f>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="10">
-        <f>0.33*Ku</f>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="C12" s="10">
-        <f>B12*2/TU</f>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="D12" s="10">
-        <f>B12*TU/3</f>
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="10">
-        <f>0.2*Ku</f>
-        <v>4</v>
-      </c>
-      <c r="C13" s="10">
-        <f>B13*2/TU</f>
-        <v>16</v>
-      </c>
-      <c r="D13" s="10">
-        <f>B13*TU/3</f>
-        <v>0.66666666666666663</v>
+      <c r="C19">
+        <f>B19*C18/B18</f>
+        <v>0.1</v>
+      </c>
+      <c r="D19">
+        <f>B19*D18/B18</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>60</v>
+      </c>
+      <c r="C20">
+        <f>B20*C18/B18</f>
+        <v>0.6</v>
+      </c>
+      <c r="D20">
+        <f>B20*D18/B18</f>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -894,7 +1203,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,18 +1224,18 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -1071,18 +1380,18 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
       <c r="K11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1181,32 +1490,35 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>6.0000000000000001E-3</v>
+        <v>5.5375219999999996E-3</v>
       </c>
       <c r="B19">
-        <v>216.56</v>
+        <v>158.15</v>
       </c>
       <c r="C19">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="D19">
         <f>A19*C19/B19</f>
-        <v>4.9870705578130775E-3</v>
+        <v>1.260517179892507E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>4.9870000000000001E-3</v>
+        <f>D19</f>
+        <v>1.260517179892507E-2</v>
       </c>
       <c r="B20">
-        <v>324.20999999999998</v>
+        <f>360*2+11.13</f>
+        <v>731.13</v>
       </c>
       <c r="C20">
-        <v>360</v>
+        <f>360*2</f>
+        <v>720</v>
       </c>
       <c r="D20">
         <f>A20*C20/B20</f>
-        <v>5.5375219764967152E-3</v>
+        <v>1.2413283130532259E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">

--- a/reglage asserv.xlsx
+++ b/reglage asserv.xlsx
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2656" uniqueCount="73">
   <si>
     <t>tic</t>
   </si>
@@ -267,6 +267,48 @@
   <si>
     <t>SLOW</t>
   </si>
+  <si>
+    <t>methode tuning</t>
+  </si>
+  <si>
+    <t>Kp = 0.7 KU</t>
+  </si>
+  <si>
+    <t>Ki (augmentation jusqu’à</t>
+  </si>
+  <si>
+    <t>O3 392 2</t>
+  </si>
+  <si>
+    <t>O3 350 0.5 300</t>
+  </si>
+  <si>
+    <t>O2 3.5 0.01 3</t>
+  </si>
+  <si>
+    <t>final slow</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>O3 250 0.001 3</t>
+  </si>
+  <si>
+    <t>O2 2.4 0.006 0.8</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>O3 160 0.006 0.3</t>
+  </si>
+  <si>
+    <t>O2 1.58 0.0025 0.1</t>
+  </si>
 </sst>
 </file>
 
@@ -405,12 +447,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -421,6 +457,12 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2214,12 +2256,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -2237,14 +2279,14 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="J3" s="13" t="s">
+      <c r="B3" s="19"/>
+      <c r="J3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="13"/>
+      <c r="K3" s="19"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -2608,10 +2650,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2624,12 +2666,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -2647,14 +2689,14 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="J3" s="13" t="s">
+      <c r="B3" s="19"/>
+      <c r="J3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="13"/>
+      <c r="K3" s="19"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -2722,10 +2764,10 @@
       <c r="M8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="N8" s="16" t="s">
+      <c r="N8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O8" s="16" t="s">
+      <c r="O8" s="14" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2811,7 +2853,7 @@
         <v>0.56500000000000006</v>
       </c>
       <c r="N11" s="8"/>
-      <c r="O11" s="19">
+      <c r="O11" s="17">
         <f>K11*M11/DT</f>
         <v>12656.000000000002</v>
       </c>
@@ -2832,10 +2874,10 @@
         <f>B12*TU/3</f>
         <v>1.6500000000000001</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="J12" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K12" s="17">
         <f>0.6*ku_2</f>
         <v>336</v>
       </c>
@@ -2847,11 +2889,11 @@
         <f>TU_2/8</f>
         <v>8.4750000000000006E-2</v>
       </c>
-      <c r="N12" s="19">
+      <c r="N12" s="17">
         <f>K12*DT/L12</f>
         <v>19.823008849557521</v>
       </c>
-      <c r="O12" s="19">
+      <c r="O12" s="17">
         <f>K12*M12/DT</f>
         <v>1423.8000000000002</v>
       </c>
@@ -2919,11 +2961,11 @@
         <f>0.2*ku_2</f>
         <v>112</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L14" s="15">
         <f>TU_2/2</f>
         <v>0.33900000000000002</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M14" s="15">
         <f>TU_2/3</f>
         <v>0.22600000000000001</v>
       </c>
@@ -3012,7 +3054,7 @@
         <v>711.90000000000009</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J17" s="11"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
@@ -3020,7 +3062,7 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -3034,7 +3076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -3049,14 +3091,14 @@
         <f>B19*D18/B18</f>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="L19" s="20">
+      <c r="L19" s="18">
         <v>336</v>
       </c>
       <c r="M19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>60</v>
       </c>
@@ -3071,13 +3113,79 @@
       <c r="H20" t="s">
         <v>49</v>
       </c>
-      <c r="L20" s="20">
+      <c r="L20" s="18">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="L21" s="20">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L21" s="18">
         <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>60</v>
+      </c>
+      <c r="K23">
+        <f>ku_2*0.7</f>
+        <v>392</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>65</v>
+      </c>
+      <c r="K26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
+        <v>64</v>
+      </c>
+      <c r="P27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>66</v>
+      </c>
+      <c r="K29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>70</v>
+      </c>
+      <c r="K32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K33" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -3118,18 +3226,18 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -3274,18 +3382,18 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14" t="s">
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
       <c r="K11" s="4" t="s">
         <v>7</v>
       </c>
@@ -4314,28 +4422,28 @@
       <c r="F20" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="13">
         <v>-18.23</v>
       </c>
-      <c r="H20" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20" s="15">
-        <v>0</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="M20" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="N20" s="15">
+      <c r="H20" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="13">
+        <v>0</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N20" s="13">
         <v>60782</v>
       </c>
       <c r="P20">
@@ -4616,10 +4724,10 @@
       <c r="N26">
         <v>61169</v>
       </c>
-      <c r="Q26" s="15" t="s">
+      <c r="Q26" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="R26" s="15">
+      <c r="R26" s="13">
         <f>R25/1000</f>
         <v>0.67800000000000005</v>
       </c>
@@ -4670,10 +4778,10 @@
       <c r="N27">
         <v>61234</v>
       </c>
-      <c r="Q27" s="15" t="s">
+      <c r="Q27" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="R27" s="15">
+      <c r="R27" s="13">
         <v>560</v>
       </c>
     </row>
@@ -4784,28 +4892,28 @@
       <c r="F30" t="s">
         <v>45</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="13">
         <v>-14.61</v>
       </c>
-      <c r="H30" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="J30" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="K30" s="15">
-        <v>0</v>
-      </c>
-      <c r="L30" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="M30" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="N30" s="15">
+      <c r="H30" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K30" s="13">
+        <v>0</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="M30" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N30" s="13">
         <v>61427</v>
       </c>
       <c r="P30">
@@ -4832,28 +4940,28 @@
       <c r="F31" t="s">
         <v>45</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="13">
         <v>-14.85</v>
       </c>
-      <c r="H31" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="J31" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="K31" s="15">
-        <v>0</v>
-      </c>
-      <c r="L31" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="M31" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="N31" s="15">
+      <c r="H31" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K31" s="13">
+        <v>0</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="M31" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N31" s="13">
         <v>61493</v>
       </c>
     </row>
@@ -5580,28 +5688,28 @@
       <c r="F48" t="s">
         <v>45</v>
       </c>
-      <c r="G48" s="15">
+      <c r="G48" s="13">
         <v>6.41</v>
       </c>
-      <c r="H48" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I48" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="J48" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="K48" s="15">
-        <v>0</v>
-      </c>
-      <c r="L48" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="M48" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="N48" s="15">
+      <c r="H48" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J48" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K48" s="13">
+        <v>0</v>
+      </c>
+      <c r="L48" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="M48" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N48" s="13">
         <v>62587</v>
       </c>
     </row>
@@ -8044,28 +8152,28 @@
       <c r="F104" t="s">
         <v>45</v>
       </c>
-      <c r="G104" s="15">
+      <c r="G104" s="13">
         <v>-18.010000000000002</v>
       </c>
-      <c r="H104" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I104" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="J104" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="K104" s="15">
-        <v>0</v>
-      </c>
-      <c r="L104" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="M104" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="N104" s="15">
+      <c r="H104" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I104" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J104" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K104" s="13">
+        <v>0</v>
+      </c>
+      <c r="L104" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="M104" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N104" s="13">
         <v>66204</v>
       </c>
     </row>
@@ -9936,28 +10044,28 @@
       <c r="F147" t="s">
         <v>45</v>
       </c>
-      <c r="G147" s="15">
+      <c r="G147" s="13">
         <v>-18.510000000000002</v>
       </c>
-      <c r="H147" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I147" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="J147" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="K147" s="15">
-        <v>0</v>
-      </c>
-      <c r="L147" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="M147" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="N147" s="15">
+      <c r="H147" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I147" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J147" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K147" s="13">
+        <v>0</v>
+      </c>
+      <c r="L147" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="M147" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N147" s="13">
         <v>68980</v>
       </c>
     </row>
